--- a/_nationalResults.xlsx
+++ b/_nationalResults.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/Documents/GitHub/sudanMNanalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084426BF-6674-AE4B-8A4B-BDBD8201048B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD1D696-4F78-F542-A0B2-DFCAD1E74F4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="National" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Indicator</t>
   </si>
@@ -37,9 +47,6 @@
     <t>Child: Moderate anaemia</t>
   </si>
   <si>
-    <t>Child: Severe Anaemia</t>
-  </si>
-  <si>
     <t>Pregnant: Median adjusted serum haemoglobin concentration (g/dL)</t>
   </si>
   <si>
@@ -49,9 +56,6 @@
     <t>Pregnant: Moderate anaemia</t>
   </si>
   <si>
-    <t>Pregnant: Severe Anaemia</t>
-  </si>
-  <si>
     <t>Non-pregnant: Median adjusted serum haemoglobin concentration (g/dL)</t>
   </si>
   <si>
@@ -61,9 +65,6 @@
     <t>Non-pregnant: Moderate anaemia</t>
   </si>
   <si>
-    <t>Non-pregnant: Severe Anaemia</t>
-  </si>
-  <si>
     <t>Child: Median serum c-reactive protein concentration (mg/L)</t>
   </si>
   <si>
@@ -88,9 +89,6 @@
     <t>Child: Iron deficiency</t>
   </si>
   <si>
-    <t>Child: Iron overload</t>
-  </si>
-  <si>
     <t>Pregnant: Median adjusted serum ferritin concentration (ng/mL)</t>
   </si>
   <si>
@@ -151,7 +149,31 @@
     <t>95% LCL</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>Child: Any anaemia</t>
+  </si>
+  <si>
+    <t>Pregnant: Any anaemia</t>
+  </si>
+  <si>
+    <t>Pregnant: Severe naemia</t>
+  </si>
+  <si>
+    <t>Child: Severe naemia</t>
+  </si>
+  <si>
+    <t>Non-pregnant: Severe anaemia</t>
+  </si>
+  <si>
+    <t>Non-pregnant: Any anaemia</t>
+  </si>
+  <si>
+    <t>Child: Iron deficiency anaemia</t>
+  </si>
+  <si>
+    <t>Pregnant: Iron deficiency anaemia</t>
+  </si>
+  <si>
+    <t>Non-pregnant: Iron deficiency anaemia</t>
   </si>
 </sst>
 </file>
@@ -495,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -517,10 +539,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -567,7 +589,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2">
         <v>1.68</v>
@@ -581,533 +603,570 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2">
-        <v>11.65</v>
+        <v>48.087433616342402</v>
       </c>
       <c r="C6" s="2">
-        <v>11.19</v>
+        <v>41.080227005461403</v>
       </c>
       <c r="D6" s="2">
-        <v>12.11</v>
+        <v>55.094640227223401</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>22.75</v>
+        <v>11.65</v>
       </c>
       <c r="C7" s="2">
-        <v>11.48</v>
+        <v>11.19</v>
       </c>
       <c r="D7" s="2">
-        <v>34.020000000000003</v>
+        <v>12.11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>12.67</v>
+        <v>22.75</v>
       </c>
       <c r="C8" s="2">
-        <v>4</v>
+        <v>11.48</v>
       </c>
       <c r="D8" s="2">
-        <v>21.35</v>
+        <v>34.020000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>0.72</v>
+        <v>12.67</v>
       </c>
       <c r="C9" s="2">
-        <v>0.01</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2">
-        <v>3.11</v>
+        <v>21.35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B10" s="2">
-        <v>12.9</v>
+        <v>0.72</v>
       </c>
       <c r="C10" s="2">
-        <v>12.62</v>
+        <v>0.01</v>
       </c>
       <c r="D10" s="2">
-        <v>13.18</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2">
-        <v>17.52</v>
+        <v>36.605026116203099</v>
       </c>
       <c r="C11" s="2">
-        <v>11.95</v>
+        <v>23.8906648815694</v>
       </c>
       <c r="D11" s="2">
-        <v>23.08</v>
+        <v>49.319387350836699</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2">
-        <v>11.21</v>
+        <v>12.9</v>
       </c>
       <c r="C12" s="2">
-        <v>6.55</v>
+        <v>12.62</v>
       </c>
       <c r="D12" s="2">
-        <v>15.87</v>
+        <v>13.18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2">
-        <v>0.83</v>
+        <v>17.52</v>
       </c>
       <c r="C13" s="2">
-        <v>0.01</v>
+        <v>11.95</v>
       </c>
       <c r="D13" s="2">
-        <v>2.21</v>
+        <v>23.08</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2">
-        <v>3.67</v>
+        <v>11.21</v>
       </c>
       <c r="C14" s="2">
-        <v>3.22</v>
+        <v>6.55</v>
       </c>
       <c r="D14" s="2">
-        <v>4.12</v>
+        <v>15.87</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B15" s="2">
-        <v>31.9</v>
+        <v>0.83</v>
       </c>
       <c r="C15" s="2">
-        <v>25.2</v>
+        <v>0.01</v>
       </c>
       <c r="D15" s="2">
-        <v>38.61</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="2">
+        <v>29.655350777301599</v>
+      </c>
+      <c r="C16" s="2">
+        <v>22.6209877042754</v>
+      </c>
+      <c r="D16" s="2">
+        <v>36.689713850327799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3.67</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3.22</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="C18" s="2">
+        <v>25.2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>38.61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4.46</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D19" s="2">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="2">
+        <v>38.28</v>
+      </c>
+      <c r="C20" s="2">
+        <v>25.42</v>
+      </c>
+      <c r="D20" s="2">
+        <v>51.13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3.77</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="D21" s="2">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2">
-        <v>4.46</v>
-      </c>
-      <c r="C16" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="D16" s="2">
-        <v>5.41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B22" s="2">
+        <v>34.369999999999997</v>
+      </c>
+      <c r="C22" s="2">
+        <v>26.55</v>
+      </c>
+      <c r="D22" s="2">
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2">
-        <v>38.28</v>
-      </c>
-      <c r="C17" s="2">
-        <v>25.42</v>
-      </c>
-      <c r="D17" s="2">
-        <v>51.13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B23" s="2">
+        <v>10.52</v>
+      </c>
+      <c r="C23" s="2">
+        <v>7.88</v>
+      </c>
+      <c r="D23" s="2">
+        <v>13.15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2">
-        <v>3.77</v>
-      </c>
-      <c r="C18" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="D18" s="2">
-        <v>4.2300000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B24" s="2">
+        <v>53.55</v>
+      </c>
+      <c r="C24" s="2">
+        <v>45.96</v>
+      </c>
+      <c r="D24" s="2">
+        <v>61.14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="2">
+        <v>24.626169699999998</v>
+      </c>
+      <c r="C25" s="2">
+        <v>17.838523000000002</v>
+      </c>
+      <c r="D25" s="2">
+        <v>31.413816300000004</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2">
-        <v>34.369999999999997</v>
-      </c>
-      <c r="C19" s="2">
-        <v>26.55</v>
-      </c>
-      <c r="D19" s="2">
-        <v>42.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B26" s="2">
+        <v>12.54</v>
+      </c>
+      <c r="C26" s="2">
+        <v>5.92</v>
+      </c>
+      <c r="D26" s="2">
+        <v>19.16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2">
-        <v>10.52</v>
-      </c>
-      <c r="C20" s="2">
-        <v>7.88</v>
-      </c>
-      <c r="D20" s="2">
-        <v>13.15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B27" s="2">
+        <v>58.44</v>
+      </c>
+      <c r="C27" s="2">
+        <v>43.55</v>
+      </c>
+      <c r="D27" s="2">
+        <v>73.319999999999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="2">
-        <v>53.55</v>
-      </c>
-      <c r="C21" s="2">
-        <v>45.96</v>
-      </c>
-      <c r="D21" s="2">
-        <v>61.14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B28" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="2">
+        <v>20.632573799999999</v>
+      </c>
+      <c r="C29" s="2">
+        <v>10.038693499999999</v>
+      </c>
+      <c r="D29" s="2">
+        <v>31.226454199999999</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B30" s="2">
+        <v>18.239999999999998</v>
+      </c>
+      <c r="C30" s="2">
+        <v>14.18</v>
+      </c>
+      <c r="D30" s="2">
+        <v>22.31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="2">
-        <v>12.54</v>
-      </c>
-      <c r="C24" s="2">
-        <v>5.92</v>
-      </c>
-      <c r="D24" s="2">
-        <v>19.16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B31" s="2">
+        <v>47.07</v>
+      </c>
+      <c r="C31" s="2">
+        <v>38.21</v>
+      </c>
+      <c r="D31" s="2">
+        <v>55.92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="2">
-        <v>58.44</v>
-      </c>
-      <c r="C25" s="2">
-        <v>43.55</v>
-      </c>
-      <c r="D25" s="2">
-        <v>73.319999999999993</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B32" s="2">
+        <v>1.18</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="2">
+        <v>16.0570995</v>
+      </c>
+      <c r="C33" s="2">
+        <v>10.7256635</v>
+      </c>
+      <c r="D33" s="2">
+        <v>21.3885355</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="2">
-        <v>0.63</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="D26" s="2">
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B34" s="2">
+        <v>7.73</v>
+      </c>
+      <c r="C34" s="2">
+        <v>7.57</v>
+      </c>
+      <c r="D34" s="2">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="2">
-        <v>18.239999999999998</v>
-      </c>
-      <c r="C28" s="2">
-        <v>14.18</v>
-      </c>
-      <c r="D28" s="2">
-        <v>22.31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="B35" s="2">
+        <v>39.880000000000003</v>
+      </c>
+      <c r="C35" s="2">
+        <v>32.369999999999997</v>
+      </c>
+      <c r="D35" s="2">
+        <v>47.39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="2">
-        <v>47.07</v>
-      </c>
-      <c r="C29" s="2">
-        <v>38.21</v>
-      </c>
-      <c r="D29" s="2">
-        <v>55.92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B36" s="2">
+        <v>5.71</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1.59</v>
+      </c>
+      <c r="D36" s="2">
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="2">
-        <v>1.18</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="D30" s="2">
-        <v>2.87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="B37" s="2">
+        <v>7.18</v>
+      </c>
+      <c r="C37" s="2">
+        <v>6.91</v>
+      </c>
+      <c r="D37" s="2">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="2">
-        <v>7.73</v>
-      </c>
-      <c r="C32" s="2">
-        <v>7.57</v>
-      </c>
-      <c r="D32" s="2">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="B38" s="2">
+        <v>63.98</v>
+      </c>
+      <c r="C38" s="2">
+        <v>49.32</v>
+      </c>
+      <c r="D38" s="2">
+        <v>78.64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="2">
-        <v>39.880000000000003</v>
-      </c>
-      <c r="C33" s="2">
-        <v>32.369999999999997</v>
-      </c>
-      <c r="D33" s="2">
-        <v>47.39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="B39" s="2">
+        <v>15.09</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2.44</v>
+      </c>
+      <c r="D39" s="2">
+        <v>27.73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="2">
-        <v>5.71</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1.59</v>
-      </c>
-      <c r="D34" s="2">
-        <v>9.83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="B40" s="2">
+        <v>7.44</v>
+      </c>
+      <c r="C40" s="2">
+        <v>7.29</v>
+      </c>
+      <c r="D40" s="2">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="2">
-        <v>7.18</v>
-      </c>
-      <c r="C35" s="2">
-        <v>6.91</v>
-      </c>
-      <c r="D35" s="2">
-        <v>7.45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="B41" s="2">
+        <v>55.22</v>
+      </c>
+      <c r="C41" s="2">
+        <v>47.03</v>
+      </c>
+      <c r="D41" s="2">
+        <v>63.41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="2">
-        <v>63.98</v>
-      </c>
-      <c r="C36" s="2">
-        <v>49.32</v>
-      </c>
-      <c r="D36" s="2">
-        <v>78.64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="B42" s="2">
+        <v>23.76</v>
+      </c>
+      <c r="C42" s="2">
+        <v>15.47</v>
+      </c>
+      <c r="D42" s="2">
+        <v>32.04</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="2">
-        <v>15.09</v>
-      </c>
-      <c r="C37" s="2">
-        <v>2.44</v>
-      </c>
-      <c r="D37" s="2">
-        <v>27.73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="B43" s="2">
+        <v>101.22</v>
+      </c>
+      <c r="C43" s="2">
+        <v>51.2</v>
+      </c>
+      <c r="D43" s="2">
+        <v>151.22999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="2">
-        <v>7.44</v>
-      </c>
-      <c r="C38" s="2">
-        <v>7.29</v>
-      </c>
-      <c r="D38" s="2">
-        <v>7.59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="B44" s="2">
+        <v>108.38</v>
+      </c>
+      <c r="C44" s="2">
+        <v>74</v>
+      </c>
+      <c r="D44" s="2">
+        <v>142.76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="2">
-        <v>55.22</v>
-      </c>
-      <c r="C39" s="2">
-        <v>47.03</v>
-      </c>
-      <c r="D39" s="2">
-        <v>63.41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="2">
-        <v>23.76</v>
-      </c>
-      <c r="C40" s="2">
-        <v>15.47</v>
-      </c>
-      <c r="D40" s="2">
-        <v>32.04</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="2">
-        <v>101.22</v>
-      </c>
-      <c r="C41" s="2">
-        <v>51.2</v>
-      </c>
-      <c r="D41" s="2">
-        <v>151.22999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="2">
-        <v>108.38</v>
-      </c>
-      <c r="C42" s="2">
-        <v>74</v>
-      </c>
-      <c r="D42" s="2">
-        <v>142.76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="2">
+      <c r="B45" s="2">
         <v>81.53</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C45" s="2">
         <v>57.86</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D45" s="2">
         <v>105.19</v>
       </c>
     </row>
